--- a/data/WOF_meta.xlsx
+++ b/data/WOF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2024_winter\2024_winter_intercrop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3478D1-4B41-4F65-9F35-196979C16535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFEA3A0-6E39-4487-9C38-6EB0B34305C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
+    <workbookView xWindow="1950" yWindow="2265" windowWidth="28770" windowHeight="15450" xr2:uid="{8490C5E2-A5E7-44F0-A1FA-8219381ADEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2493,42 +2493,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2537,13 +2507,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2551,6 +2516,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2890,7 +2861,7 @@
   <dimension ref="A1:DU97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,56 +2878,56 @@
     <col min="38" max="38" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
@@ -3285,28 +3256,28 @@
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I2" t="s">
@@ -3662,28 +3633,28 @@
       </c>
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I3" t="s">
@@ -4039,28 +4010,28 @@
       </c>
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I4" t="s">
@@ -4171,7 +4142,7 @@
       <c r="AR4" t="s">
         <v>126</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AS4" s="3" t="s">
         <v>160</v>
       </c>
       <c r="AT4" t="s">
@@ -4416,28 +4387,28 @@
       </c>
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I5" t="s">
@@ -4793,28 +4764,28 @@
       </c>
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I6" t="s">
@@ -5170,28 +5141,28 @@
       </c>
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I7" t="s">
@@ -5547,28 +5518,28 @@
       </c>
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I8" t="s">
@@ -5924,28 +5895,28 @@
       </c>
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I9" t="s">
@@ -6301,28 +6272,28 @@
       </c>
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I10" t="s">
@@ -6678,28 +6649,28 @@
       </c>
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I11" t="s">
@@ -7055,28 +7026,28 @@
       </c>
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -7432,28 +7403,28 @@
       </c>
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I13" t="s">
@@ -7525,7 +7496,7 @@
       <c r="AE13" t="s">
         <v>243</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AF13" s="4">
         <v>15045</v>
       </c>
       <c r="AG13" t="s">
@@ -7809,28 +7780,28 @@
       </c>
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I14" t="s">
@@ -8186,28 +8157,28 @@
       </c>
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I15" t="s">
@@ -8318,7 +8289,7 @@
       <c r="AR15" t="s">
         <v>245</v>
       </c>
-      <c r="AS15" s="6" t="s">
+      <c r="AS15" s="3" t="s">
         <v>258</v>
       </c>
       <c r="AT15" t="s">
@@ -8563,28 +8534,28 @@
       </c>
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I16" t="s">
@@ -8940,28 +8911,28 @@
       </c>
     </row>
     <row r="17" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I17" t="s">
@@ -9317,28 +9288,28 @@
       </c>
     </row>
     <row r="18" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I18" t="s">
@@ -9688,28 +9659,28 @@
       </c>
     </row>
     <row r="19" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I19" t="s">
@@ -10065,28 +10036,28 @@
       </c>
     </row>
     <row r="20" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I20" t="s">
@@ -10197,7 +10168,7 @@
       <c r="AR20" t="s">
         <v>170</v>
       </c>
-      <c r="AS20" s="6" t="s">
+      <c r="AS20" s="3" t="s">
         <v>288</v>
       </c>
       <c r="AT20" t="s">
@@ -10442,28 +10413,28 @@
       </c>
     </row>
     <row r="21" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I21" t="s">
@@ -10819,28 +10790,28 @@
       </c>
     </row>
     <row r="22" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I22" t="s">
@@ -11196,28 +11167,28 @@
       </c>
     </row>
     <row r="23" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I23" t="s">
@@ -11573,28 +11544,28 @@
       </c>
     </row>
     <row r="24" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I24" t="s">
@@ -11950,28 +11921,28 @@
       </c>
     </row>
     <row r="25" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I25" t="s">
@@ -12327,28 +12298,28 @@
       </c>
     </row>
     <row r="26" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I26" t="s">
@@ -12704,28 +12675,28 @@
       </c>
     </row>
     <row r="27" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I27" t="s">
@@ -13081,28 +13052,28 @@
       </c>
     </row>
     <row r="28" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I28" t="s">
@@ -13458,28 +13429,28 @@
       </c>
     </row>
     <row r="29" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I29" t="s">
@@ -13590,7 +13561,7 @@
       <c r="AR29" t="s">
         <v>245</v>
       </c>
-      <c r="AS29" s="6" t="s">
+      <c r="AS29" s="3" t="s">
         <v>346</v>
       </c>
       <c r="AT29" t="s">
@@ -13835,28 +13806,28 @@
       </c>
     </row>
     <row r="30" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>351</v>
       </c>
       <c r="I30" t="s">
@@ -14212,28 +14183,28 @@
       </c>
     </row>
     <row r="31" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="6" t="s">
         <v>359</v>
       </c>
       <c r="I31" t="s">
@@ -14589,28 +14560,28 @@
       </c>
     </row>
     <row r="32" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I32" t="s">
@@ -14966,28 +14937,28 @@
       </c>
     </row>
     <row r="33" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="6">
         <v>9488</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I33" t="s">
@@ -15059,7 +15030,7 @@
       <c r="AE33" t="s">
         <v>134</v>
       </c>
-      <c r="AF33" s="7">
+      <c r="AF33" s="4">
         <v>18611</v>
       </c>
       <c r="AG33">
@@ -15098,7 +15069,7 @@
       <c r="AR33" t="s">
         <v>209</v>
       </c>
-      <c r="AS33" s="6" t="s">
+      <c r="AS33" s="3" t="s">
         <v>288</v>
       </c>
       <c r="AT33" t="s">
@@ -15343,28 +15314,28 @@
       </c>
     </row>
     <row r="34" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="6" t="s">
         <v>381</v>
       </c>
       <c r="I34" t="s">
@@ -15475,7 +15446,7 @@
       <c r="AR34" t="s">
         <v>126</v>
       </c>
-      <c r="AS34" s="6" t="s">
+      <c r="AS34" s="3" t="s">
         <v>383</v>
       </c>
       <c r="AT34" t="s">
@@ -15720,28 +15691,28 @@
       </c>
     </row>
     <row r="35" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I35" t="s">
@@ -16097,28 +16068,28 @@
       </c>
     </row>
     <row r="36" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I36" t="s">
@@ -16474,28 +16445,28 @@
       </c>
     </row>
     <row r="37" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="6" t="s">
         <v>396</v>
       </c>
       <c r="I37" t="s">
@@ -16851,28 +16822,28 @@
       </c>
     </row>
     <row r="38" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I38" t="s">
@@ -16983,7 +16954,7 @@
       <c r="AR38" t="s">
         <v>146</v>
       </c>
-      <c r="AS38" s="6" t="s">
+      <c r="AS38" s="3" t="s">
         <v>404</v>
       </c>
       <c r="AT38" t="s">
@@ -17228,28 +17199,28 @@
       </c>
     </row>
     <row r="39" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I39" t="s">
@@ -17605,28 +17576,28 @@
       </c>
     </row>
     <row r="40" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I40" t="s">
@@ -17982,28 +17953,28 @@
       </c>
     </row>
     <row r="41" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I41" t="s">
@@ -18114,7 +18085,7 @@
       <c r="AR41" t="s">
         <v>196</v>
       </c>
-      <c r="AS41" s="6" t="s">
+      <c r="AS41" s="3" t="s">
         <v>404</v>
       </c>
       <c r="AT41" t="s">
@@ -18359,28 +18330,28 @@
       </c>
     </row>
     <row r="42" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I42" t="s">
@@ -18736,28 +18707,28 @@
       </c>
     </row>
     <row r="43" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I43" t="s">
@@ -19113,28 +19084,28 @@
       </c>
     </row>
     <row r="44" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="6" t="s">
         <v>432</v>
       </c>
       <c r="I44" t="s">
@@ -19490,28 +19461,28 @@
       </c>
     </row>
     <row r="45" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <v>10</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="6" t="s">
         <v>438</v>
       </c>
       <c r="I45" t="s">
@@ -19583,7 +19554,7 @@
       <c r="AE45" t="s">
         <v>134</v>
       </c>
-      <c r="AF45" s="7">
+      <c r="AF45" s="4">
         <v>21776</v>
       </c>
       <c r="AG45" t="s">
@@ -19867,28 +19838,28 @@
       </c>
     </row>
     <row r="46" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <v>11</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="6" t="s">
         <v>446</v>
       </c>
       <c r="I46" t="s">
@@ -19960,7 +19931,7 @@
       <c r="AE46" t="s">
         <v>134</v>
       </c>
-      <c r="AF46" s="7">
+      <c r="AF46" s="4">
         <v>21776</v>
       </c>
       <c r="AG46" t="s">
@@ -20244,28 +20215,28 @@
       </c>
     </row>
     <row r="47" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <v>12</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="6" t="s">
         <v>452</v>
       </c>
       <c r="I47" t="s">
@@ -20337,7 +20308,7 @@
       <c r="AE47" t="s">
         <v>134</v>
       </c>
-      <c r="AF47" s="7">
+      <c r="AF47" s="4">
         <v>21776</v>
       </c>
       <c r="AG47" t="s">
@@ -20621,28 +20592,28 @@
       </c>
     </row>
     <row r="48" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <v>14</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I48" t="s">
@@ -20714,7 +20685,7 @@
       <c r="AE48" t="s">
         <v>134</v>
       </c>
-      <c r="AF48" s="7">
+      <c r="AF48" s="4">
         <v>21776</v>
       </c>
       <c r="AG48" t="s">
@@ -20998,28 +20969,28 @@
       </c>
     </row>
     <row r="49" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="6">
         <v>588</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I49" t="s">
@@ -21375,28 +21346,28 @@
       </c>
     </row>
     <row r="50" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="6">
         <v>917</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I50" t="s">
@@ -21752,28 +21723,28 @@
       </c>
     </row>
     <row r="51" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I51" t="s">
@@ -22129,28 +22100,28 @@
       </c>
     </row>
     <row r="52" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I52" t="s">
@@ -22506,28 +22477,28 @@
       </c>
     </row>
     <row r="53" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I53" t="s">
@@ -22883,28 +22854,28 @@
       </c>
     </row>
     <row r="54" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I54" t="s">
@@ -23260,28 +23231,28 @@
       </c>
     </row>
     <row r="55" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I55" t="s">
@@ -23637,28 +23608,28 @@
       </c>
     </row>
     <row r="56" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I56" t="s">
@@ -24014,28 +23985,28 @@
       </c>
     </row>
     <row r="57" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I57" t="s">
@@ -24391,28 +24362,28 @@
       </c>
     </row>
     <row r="58" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I58" t="s">
@@ -24768,28 +24739,28 @@
       </c>
     </row>
     <row r="59" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I59" t="s">
@@ -25145,28 +25116,28 @@
       </c>
     </row>
     <row r="60" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="6">
         <v>1930</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I60" t="s">
@@ -25522,28 +25493,28 @@
       </c>
     </row>
     <row r="61" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="6" t="s">
         <v>541</v>
       </c>
       <c r="I61" t="s">
@@ -25899,28 +25870,28 @@
       </c>
     </row>
     <row r="62" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="6">
         <v>1</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="6" t="s">
         <v>550</v>
       </c>
       <c r="I62" t="s">
@@ -26276,28 +26247,28 @@
       </c>
     </row>
     <row r="63" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="6" t="s">
         <v>555</v>
       </c>
       <c r="I63" t="s">
@@ -26653,28 +26624,28 @@
       </c>
     </row>
     <row r="64" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I64" t="s">
@@ -27030,28 +27001,28 @@
       </c>
     </row>
     <row r="65" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I65" t="s">
@@ -27407,28 +27378,28 @@
       </c>
     </row>
     <row r="66" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="6">
         <v>24</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="6" t="s">
         <v>580</v>
       </c>
       <c r="I66" t="s">
@@ -27784,28 +27755,28 @@
       </c>
     </row>
     <row r="67" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="6">
         <v>33</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="6" t="s">
         <v>590</v>
       </c>
       <c r="I67" t="s">
@@ -28161,28 +28132,28 @@
       </c>
     </row>
     <row r="68" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="6">
         <v>37</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="6" t="s">
         <v>600</v>
       </c>
       <c r="I68" t="s">
@@ -28538,28 +28509,28 @@
       </c>
     </row>
     <row r="69" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="6" t="s">
         <v>608</v>
       </c>
       <c r="I69" t="s">
@@ -28915,28 +28886,28 @@
       </c>
     </row>
     <row r="70" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="D70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="6" t="s">
         <v>617</v>
       </c>
       <c r="I70" t="s">
@@ -29292,28 +29263,28 @@
       </c>
     </row>
     <row r="71" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="6" t="s">
         <v>627</v>
       </c>
       <c r="I71" t="s">
@@ -29669,28 +29640,28 @@
       </c>
     </row>
     <row r="72" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="6" t="s">
         <v>637</v>
       </c>
       <c r="I72" t="s">
@@ -30046,28 +30017,28 @@
       </c>
     </row>
     <row r="73" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="6" t="s">
         <v>648</v>
       </c>
       <c r="I73" t="s">
@@ -30423,28 +30394,28 @@
       </c>
     </row>
     <row r="74" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I74" t="s">
@@ -30800,28 +30771,28 @@
       </c>
     </row>
     <row r="75" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="6" t="s">
         <v>661</v>
       </c>
       <c r="I75" t="s">
@@ -31177,28 +31148,28 @@
       </c>
     </row>
     <row r="76" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="6" t="s">
         <v>670</v>
       </c>
       <c r="I76" t="s">
@@ -31554,28 +31525,28 @@
       </c>
     </row>
     <row r="77" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="6" t="s">
         <v>679</v>
       </c>
       <c r="I77" t="s">
@@ -31931,28 +31902,28 @@
       </c>
     </row>
     <row r="78" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I78" t="s">
@@ -32308,28 +32279,28 @@
       </c>
     </row>
     <row r="79" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I79" t="s">
@@ -32685,28 +32656,28 @@
       </c>
     </row>
     <row r="80" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="6">
         <v>426</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="6" t="s">
         <v>700</v>
       </c>
       <c r="I80" t="s">
@@ -32778,7 +32749,7 @@
       <c r="AE80" t="s">
         <v>134</v>
       </c>
-      <c r="AF80" s="7">
+      <c r="AF80" s="4">
         <v>28906</v>
       </c>
       <c r="AG80">
@@ -33062,28 +33033,28 @@
       </c>
     </row>
     <row r="81" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="F81" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" t="s">
-        <v>126</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="F81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I81" t="s">
@@ -33110,7 +33081,7 @@
       <c r="P81">
         <v>41.203299999999999</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="5">
         <v>-77.194500000000005</v>
       </c>
       <c r="R81" t="s">
@@ -33439,28 +33410,28 @@
       </c>
     </row>
     <row r="82" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="F82" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="F82" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I82" t="s">
@@ -33816,28 +33787,28 @@
       </c>
     </row>
     <row r="83" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I83" t="s">
@@ -34193,28 +34164,28 @@
       </c>
     </row>
     <row r="84" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I84" t="s">
@@ -34570,28 +34541,28 @@
       </c>
     </row>
     <row r="85" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I85" t="s">
@@ -34947,28 +34918,28 @@
       </c>
     </row>
     <row r="86" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="F86" t="s">
-        <v>126</v>
-      </c>
-      <c r="G86" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="F86" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I86" t="s">
@@ -35324,28 +35295,28 @@
       </c>
     </row>
     <row r="87" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I87" t="s">
@@ -35701,28 +35672,28 @@
       </c>
     </row>
     <row r="88" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="F88" t="s">
-        <v>126</v>
-      </c>
-      <c r="G88" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="F88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I88" t="s">
@@ -36078,28 +36049,28 @@
       </c>
     </row>
     <row r="89" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I89" t="s">
@@ -36455,28 +36426,28 @@
       </c>
     </row>
     <row r="90" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I90" t="s">
@@ -36832,28 +36803,28 @@
       </c>
     </row>
     <row r="91" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I91" t="s">
@@ -37209,28 +37180,28 @@
       </c>
     </row>
     <row r="92" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I92" t="s">
@@ -37586,28 +37557,28 @@
       </c>
     </row>
     <row r="93" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F93" t="s">
-        <v>126</v>
-      </c>
-      <c r="G93" t="s">
-        <v>126</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="F93" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I93" t="s">
@@ -37963,28 +37934,28 @@
       </c>
     </row>
     <row r="94" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I94" t="s">
@@ -38056,7 +38027,7 @@
       <c r="AE94" t="s">
         <v>134</v>
       </c>
-      <c r="AF94" s="7">
+      <c r="AF94" s="4">
         <v>31619</v>
       </c>
       <c r="AG94">
@@ -38340,28 +38311,28 @@
       </c>
     </row>
     <row r="95" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="F95" t="s">
-        <v>126</v>
-      </c>
-      <c r="G95" t="s">
-        <v>126</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="F95" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I95" t="s">
@@ -38472,7 +38443,7 @@
       <c r="AR95" t="s">
         <v>199</v>
       </c>
-      <c r="AS95" s="6" t="s">
+      <c r="AS95" s="3" t="s">
         <v>383</v>
       </c>
       <c r="AT95" t="s">
@@ -38717,28 +38688,28 @@
       </c>
     </row>
     <row r="96" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I96" t="s">
@@ -39094,28 +39065,28 @@
       </c>
     </row>
     <row r="97" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I97" t="s">
